--- a/tables/crosstab/crosstab_app_time/interested VS frequently.xlsx
+++ b/tables/crosstab/crosstab_app_time/interested VS frequently.xlsx
@@ -462,28 +462,28 @@
         <v>35</v>
       </c>
       <c r="D2">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G2">
-        <v>10.29</v>
+        <v>10.5</v>
       </c>
       <c r="H2">
-        <v>8.58</v>
+        <v>8.75</v>
       </c>
       <c r="I2">
-        <v>13.73</v>
+        <v>13.25</v>
       </c>
       <c r="J2">
-        <v>3.43</v>
+        <v>3.25</v>
       </c>
       <c r="K2">
-        <v>36.03</v>
+        <v>35.75</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -491,34 +491,34 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3">
         <v>79</v>
       </c>
       <c r="D3">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G3">
-        <v>13.73</v>
+        <v>13.75</v>
       </c>
       <c r="H3">
-        <v>19.36</v>
+        <v>19.75</v>
       </c>
       <c r="I3">
-        <v>26.96</v>
+        <v>27.25</v>
       </c>
       <c r="J3">
-        <v>3.92</v>
+        <v>3.5</v>
       </c>
       <c r="K3">
-        <v>63.97</v>
+        <v>64.25</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -526,31 +526,31 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4">
         <v>114</v>
       </c>
       <c r="D4">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E4">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F4">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G4">
-        <v>24.02</v>
+        <v>24.25</v>
       </c>
       <c r="H4">
-        <v>27.94</v>
+        <v>28.5</v>
       </c>
       <c r="I4">
-        <v>40.69</v>
+        <v>40.5</v>
       </c>
       <c r="J4">
-        <v>7.35</v>
+        <v>6.75</v>
       </c>
       <c r="K4">
         <v>100</v>
